--- a/fall classes.xlsx
+++ b/fall classes.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon_K/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="296">
-  <si>
-    <t>Course ID</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="294">
   <si>
     <t>ACC1000</t>
   </si>
@@ -815,10 +797,10 @@
     <t>SCN AND INNOVATION</t>
   </si>
   <si>
+    <t>FYS1001</t>
+  </si>
+  <si>
     <t>FIRST YEAR SEMINAR</t>
-  </si>
-  <si>
-    <t>FYS1001</t>
   </si>
   <si>
     <t>IMH2312</t>
@@ -920,27 +902,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.2"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -952,7 +946,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -960,303 +954,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,1199 +1026,1198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+    <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+    <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+    <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+    <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+    <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+    <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+    <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+    <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+    <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+    <row r="148" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="149" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>